--- a/beheer/Template_NLCS_Arceringen.xlsx
+++ b/beheer/Template_NLCS_Arceringen.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1B046-2DB7-4ADA-ADC6-26FD7B157FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA87CA-F3E5-4760-B296-832CA95C0A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E472472F-6940-4EDF-AC58-8C8B48ABFA85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E472472F-6940-4EDF-AC58-8C8B48ABFA85}"/>
   </bookViews>
   <sheets>
     <sheet name="Arceringen" sheetId="1" r:id="rId1"/>
-    <sheet name="Abibliotheek" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={CB2FB5E8-3B37-47BA-A437-A43574CDF6B1}</author>
+    <author>tc={5D30510B-31D1-4E67-8636-DF75D24DEF08}</author>
     <author>tc={C0083097-84C3-4E5E-842D-90DDD8A2DFF9}</author>
     <author>tc={3A2C5622-1749-4985-8003-D48263CBBDB8}</author>
     <author>tc={81BE1F48-8EEE-4116-AD52-4A91D2E0A195}</author>
@@ -50,15 +49,15 @@
     <author>tc={7B22950D-F62F-4997-8349-499D8698EB92}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CB2FB5E8-3B37-47BA-A437-A43574CDF6B1}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5D30510B-31D1-4E67-8636-DF75D24DEF08}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de arcering aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
+    Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aanduiden tot welke abib het symbool behoort.
+Voorbeeld:  ACO
 </t>
       </text>
     </comment>
@@ -147,51 +146,6 @@
     Verplicht: NEE
 Inputtype: string (tekst)
 Voorbeeld: https://github.com/nl-digigo/NLCS/tree/main/arcering/5.0/NLCS-pat-5.0/ACO-BALLAST_01-SODMM.pat</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={9DDA5DA4-C9A4-4EA6-972D-75ECEC398634}</author>
-    <author>tc={AA510E24-7A84-4445-9AB2-D5DA9C1A0C18}</author>
-    <author>tc={EB51A1E5-096C-4A8F-A5FF-F2D230BE9868}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9DDA5DA4-C9A4-4EA6-972D-75ECEC398634}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De abibliotheken met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{AA510E24-7A84-4445-9AB2-D5DA9C1A0C18}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld:  ACO
-</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{EB51A1E5-096C-4A8F-A5FF-F2D230BE9868}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld: Constructies</t>
       </text>
     </comment>
   </commentList>
@@ -199,19 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>bibliotheek</t>
-  </si>
-  <si>
-    <t>abib_id</t>
-  </si>
-  <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>fase</t>
   </si>
@@ -235,6 +177,9 @@
   </si>
   <si>
     <t>fileURL</t>
+  </si>
+  <si>
+    <t>abib</t>
   </si>
 </sst>
 </file>
@@ -652,11 +597,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-04-16T08:11:45.52" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{CB2FB5E8-3B37-47BA-A437-A43574CDF6B1}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de arcering aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
+  <threadedComment ref="A1" dT="2024-08-02T09:30:14.16" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{5D30510B-31D1-4E67-8636-DF75D24DEF08}">
+    <text xml:space="preserve">Verplicht: JA
+Inputtype: string (tekst)
+Doel: Aanduiden tot welke abib het symbool behoort.
+Voorbeeld:  ACO
 </text>
   </threadedComment>
   <threadedComment ref="B1" dT="2024-04-16T08:13:08.38" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{C0083097-84C3-4E5E-842D-90DDD8A2DFF9}">
@@ -711,29 +656,6 @@
         <xltc2:hyperlink startIndex="52" length="94" url="https://github.com/nl-digigo/NLCS/tree/main/arcering/5.0/NLCS-pat-5.0/ACO-BALLAST_01-SODMM.pat"/>
       </x:ext>
     </extLst>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-04-16T10:02:12.24" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{9DDA5DA4-C9A4-4EA6-972D-75ECEC398634}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: De abibliotheken met een nummer onderscheiden, kan uitgefaseerd worden vanwege de nieuwe URIs. Dit veld mag dus leeggelaten worden
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-04-16T10:03:08.35" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{AA510E24-7A84-4445-9AB2-D5DA9C1A0C18}">
-    <text xml:space="preserve">Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld:  ACO
-</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2024-04-16T10:03:41.64" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{EB51A1E5-096C-4A8F-A5FF-F2D230BE9868}">
-    <text>Verplicht: JA
-Inputtype: string (tekst)
-Voorbeeld: Constructies</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -746,77 +668,45 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473BF575-4BC6-4AE4-82F0-7C27BB3663BB}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/beheer/Template_NLCS_Arceringen.xlsx
+++ b/beheer/Template_NLCS_Arceringen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA87CA-F3E5-4760-B296-832CA95C0A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B813344-A434-42AF-B420-048B3B98BAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E472472F-6940-4EDF-AC58-8C8B48ABFA85}"/>
   </bookViews>
@@ -46,7 +46,6 @@
     <author>tc={7AE9AF52-B0D9-4993-BFA0-88FF6441E966}</author>
     <author>tc={A6FAF15B-C35B-4CA5-99A5-0B51E37BC293}</author>
     <author>tc={9CEFB080-9065-48AB-915D-DD95309D1ED6}</author>
-    <author>tc={7B22950D-F62F-4997-8349-499D8698EB92}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5D30510B-31D1-4E67-8636-DF75D24DEF08}">
@@ -138,22 +137,12 @@
 </t>
       </text>
     </comment>
-    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{7B22950D-F62F-4997-8349-499D8698EB92}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld: https://github.com/nl-digigo/NLCS/tree/main/arcering/5.0/NLCS-pat-5.0/ACO-BALLAST_01-SODMM.pat</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fase</t>
   </si>
@@ -174,9 +163,6 @@
   </si>
   <si>
     <t>vrkl_lang</t>
-  </si>
-  <si>
-    <t>fileURL</t>
   </si>
   <si>
     <t>abib</t>
@@ -186,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +187,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -248,14 +228,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -646,26 +626,15 @@
 Voorbeeld:  45,0,0,0,2 
 </text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2024-04-16T10:00:49.40" personId="{176E8F97-856C-461A-B61A-67571D00487D}" id="{7B22950D-F62F-4997-8349-499D8698EB92}">
-    <text>Verplicht: NEE
-Inputtype: string (tekst)
-Voorbeeld: https://github.com/nl-digigo/NLCS/tree/main/arcering/5.0/NLCS-pat-5.0/ACO-BALLAST_01-SODMM.pat</text>
-    <extLst>
-      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
-        <xltc2:checksum>1544328656</xltc2:checksum>
-        <xltc2:hyperlink startIndex="52" length="94" url="https://github.com/nl-digigo/NLCS/tree/main/arcering/5.0/NLCS-pat-5.0/ACO-BALLAST_01-SODMM.pat"/>
-      </x:ext>
-    </extLst>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11518552-15DB-48BB-B1D7-0C0365907E2A}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,9 +642,9 @@
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -698,12 +667,9 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L12" s="4"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
